--- a/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 3,17</t>
+          <t>-8,79; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 9,08</t>
+          <t>-3,73; 9,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -1,06</t>
+          <t>-13,74; -1,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 6,58</t>
+          <t>-12,68; 6,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 9,41</t>
+          <t>-22,17; 9,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 33,1</t>
+          <t>-10,91; 34,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -3,32</t>
+          <t>-37,22; -3,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 36,38</t>
+          <t>-44,38; 35,68</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,87; -8,62</t>
+          <t>-19,57; -8,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 2,39</t>
+          <t>-9,17; 1,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,23; -0,18</t>
+          <t>-12,34; -0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,24; -3,58</t>
+          <t>-22,99; -4,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -18,26</t>
+          <t>-37,61; -19,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 5,84</t>
+          <t>-19,82; 5,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -0,56</t>
+          <t>-25,93; -0,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,16; -12,74</t>
+          <t>-60,02; -15,52</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,67; -9,44</t>
+          <t>-20,42; -8,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -6,31</t>
+          <t>-17,38; -6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,14</t>
+          <t>-11,73; -1,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 1,98</t>
+          <t>-8,12; 1,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -19,14</t>
+          <t>-37,55; -18,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,94; -14,46</t>
+          <t>-35,72; -14,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,65; -3,03</t>
+          <t>-27,41; -3,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 7,92</t>
+          <t>-26,32; 7,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -10,56</t>
+          <t>-22,19; -10,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -0,16</t>
+          <t>-11,98; 0,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -1,79</t>
+          <t>-12,56; -1,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 15,21</t>
+          <t>-7,27; 15,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,33; -26,15</t>
+          <t>-46,89; -24,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -0,35</t>
+          <t>-25,1; 0,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -4,5</t>
+          <t>-27,31; -4,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 162,91</t>
+          <t>-25,31; 174,81</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,51; -15,52</t>
+          <t>-26,95; -15,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -15,18</t>
+          <t>-27,2; -14,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -2,37</t>
+          <t>-13,9; -1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -4,18</t>
+          <t>-13,6; -4,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-75,82; -52,49</t>
+          <t>-73,69; -51,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -45,73</t>
+          <t>-69,08; -46,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -8,23</t>
+          <t>-41,2; -4,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,08; -14,75</t>
+          <t>-40,05; -14,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -11,82</t>
+          <t>-20,93; -12,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -5,86</t>
+          <t>-16,86; -5,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,19; -4,43</t>
+          <t>-14,65; -4,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,8; -5,25</t>
+          <t>-18,75; -5,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-95,85; -78,88</t>
+          <t>-95,6; -78,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -40,16</t>
+          <t>-81,78; -42,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,2; -30,58</t>
+          <t>-71,55; -29,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,1; -30,17</t>
+          <t>-83,42; -29,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; -5,42</t>
+          <t>-14,09; -5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -5,95</t>
+          <t>-15,08; -5,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -3,87</t>
+          <t>-11,02; -3,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,29; -3,14</t>
+          <t>-7,9; -3,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-96,77; -61,46</t>
+          <t>-96,55; -63,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-98,01; -67,99</t>
+          <t>-97,81; -67,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-92,22; -49,4</t>
+          <t>-91,9; -48,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-90,28; -61,41</t>
+          <t>-89,62; -60,72</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -13,24</t>
+          <t>-17,45; -12,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -7,58</t>
+          <t>-12,09; -7,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -6,44</t>
+          <t>-10,82; -6,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -1,03</t>
+          <t>-9,84; -1,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -34,1</t>
+          <t>-42,77; -33,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -21,27</t>
+          <t>-31,88; -21,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -19,01</t>
+          <t>-29,76; -18,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-38,85; -8,3</t>
+          <t>-38,09; -8,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Edad-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
